--- a/Multithread/tasks.xlsx
+++ b/Multithread/tasks.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
